--- a/Output/PBL/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/PBL/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -136,15 +138,47 @@
   </si>
   <si>
     <t xml:space="preserve">FP-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -180,10 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2049,4 +2085,1343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3" t="n">
+        <v>21666931.3701</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>18878984</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>42032652.71</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>25142090.3739</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>24623082.2426</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>33367707.9495</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>28290021.16</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>23563384.68</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>23617113.55</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>31203622.95</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>35463332.15</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>4898686.39</v>
+      </c>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>17978756</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1435601</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>2952224</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>33318258.8805</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>27007361.29</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>38895674.59</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>66105180.0615</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>43695520.1498</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>50915892.4473</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>190505724.12</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>195483020</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>232950545.87</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>279701548.25</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>163348226.45</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>234774428.37</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>309055557</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>342178907.12</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>173751583.82</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>40957944.99</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>60628596.92</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>24432514</v>
+      </c>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="n">
+        <v>91138775.875</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>99659193.25</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>143411795</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>101190823.92</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>83751826.01</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>43551812.8</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>118649.6563</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3" t="n">
+        <v>-696607.04</v>
+      </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="3" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f>Sum(Y2:Y4)</f>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <f>Sum(Z2:Z4)</f>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f>Sum(AA2:AA4)</f>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <f>Sum(AB2:AB4)</f>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <f>Sum(AC2:AC4)</f>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <f>Sum(AD2:AD4)</f>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f>Sum(AE2:AE4)</f>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f>Sum(AF2:AF4)</f>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <f>Sum(AG2:AG4)</f>
+      </c>
+      <c r="AH5" s="3" t="str">
+        <f>Sum(AH2:AH4)</f>
+      </c>
+      <c r="AI5" s="3" t="str">
+        <f>Sum(AI2:AI4)</f>
+      </c>
+      <c r="AJ5" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3" t="n">
+        <v>27890776.2463736</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>23866586.3393139</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>52592516.5664668</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>31209019.4555077</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>30057396.4993158</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>39847349.9120093</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>33170328.3490592</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>27272042.9265295</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>26424757.5714415</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>32631082.4428466</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>35463332.15</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>4771265.04301639</v>
+      </c>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>27826381.9578441</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>2156316.15804978</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>4294815.67793701</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>47171884.2787783</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>37459249.9867742</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>53402260.6510005</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>89980590.1778506</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>58306866.5074264</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>66730760.0754083</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>245228659.025368</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>247127301.696947</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>291474714.369401</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>347195119.07139</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>199399180.06582</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>280365040.709712</v>
+      </c>
+      <c r="AC10" s="3" t="n">
+        <v>362370683.49338</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>396034694.09258</v>
+      </c>
+      <c r="AE10" s="3" t="n">
+        <v>194407477.881543</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>42831631.4999655</v>
+      </c>
+      <c r="AG10" s="3" t="n">
+        <v>60628596.92</v>
+      </c>
+      <c r="AH10" s="3" t="n">
+        <v>23796991.8219665</v>
+      </c>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3" t="n">
+        <v>124055646.37582</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>132984234.016314</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>187956601.056025</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>130257976.08025</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>105878059.250586</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>54493335.2645318</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>144835.635473233</v>
+      </c>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3" t="n">
+        <v>-806246.528493319</v>
+      </c>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="n">
+        <v>23045.2305</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="n">
+        <v>91138775.875</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>99659193.25</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>143411795</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>278703575.2901</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>280561255.01</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>319400720.61</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>304839668.1239</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>188089851.8989</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>268149425.9495</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>337345578.16</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>339636928.76</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>197368697.37</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>72161567.94</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>96091929.07</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>29391241</v>
+      </c>
+      <c r="AJ2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>17978756</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>215723</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>2952224</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>33295213.65</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>27007361.29</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>38895674.59</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>66210325.0615</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>43695520.1498</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>50915892.4473</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>34659904.12</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>17552575</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>-865709.23</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>3970.5</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>106.45</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>-7289.63</v>
+      </c>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4" t="n">
+        <v>25408756</v>
+      </c>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="n">
+        <v>1219878</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="n">
+        <v>-105145</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4" t="n">
+        <v>-60040.61</v>
+      </c>
+      <c r="AJ5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="4" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="4" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="4" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="4" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="4" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="4" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="4" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="4" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="4" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="4" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="4" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="4" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="4" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="4" t="str">
+        <f>Sum(AF2:AF5)</f>
+      </c>
+      <c r="AG6" s="4" t="str">
+        <f>Sum(AG2:AG5)</f>
+      </c>
+      <c r="AH6" s="4" t="str">
+        <f>Sum(AH2:AH5)</f>
+      </c>
+      <c r="AI6" s="4" t="str">
+        <f>Sum(AI2:AI5)</f>
+      </c>
+      <c r="AJ6" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4" t="n">
+        <v>32627.3635793137</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4" t="n">
+        <v>124055646.37582</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>132984234.016314</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>187956601.056025</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>358761419.635431</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>354682191.380767</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>399643767.570882</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>378399209.922717</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>229601282.257094</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>320221095.817708</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>395541011.84244</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>393092631.910356</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>220832235.452984</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>75462713.9428122</v>
+      </c>
+      <c r="AH10" s="4" t="n">
+        <v>96091929.07</v>
+      </c>
+      <c r="AI10" s="4" t="n">
+        <v>28626735.7388783</v>
+      </c>
+      <c r="AJ10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>27826381.9578441</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>324022.475996445</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>4294815.67793701</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>47139256.915199</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>37459249.9867742</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>53402260.6510005</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>90123710.7191675</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>58306866.5074264</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>66730760.0754083</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>44615991.7165613</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>22189755.9060796</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>-1083201.37048324</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>4928.60418148563</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>129.943515024962</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>-8705.19598705109</v>
+      </c>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4" t="n">
+        <v>29407858.5802604</v>
+      </c>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="n">
+        <v>1832293.68205333</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4" t="n">
+        <v>-143120.541316856</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4" t="n">
+        <v>-58478.8738954934</v>
+      </c>
+      <c r="AJ13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/PBL/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -174,11 +174,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -214,12 +215,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2804,60 +2806,60 @@
       <c r="N2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="n">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="n">
         <v>23045.2305</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="n">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="n">
         <v>91138775.875</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>99659193.25</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>143411795</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>278703575.2901</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>280561255.01</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>319400720.61</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <v>304839668.1239</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>188089851.8989</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
         <v>268149425.9495</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="5" t="n">
         <v>337345578.16</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="5" t="n">
         <v>339636928.76</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="5" t="n">
         <v>197368697.37</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="5" t="n">
         <v>72161567.94</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="5" t="n">
         <v>96091929.07</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="5" t="n">
         <v>29391241</v>
       </c>
-      <c r="AJ2" s="4"/>
+      <c r="AJ2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2872,60 +2874,60 @@
       <c r="N3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="5" t="n">
         <v>17978756</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="5" t="n">
         <v>215723</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="Q3" s="5" t="n">
         <v>2952224</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="5" t="n">
         <v>33295213.65</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="5" t="n">
         <v>27007361.29</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="5" t="n">
         <v>38895674.59</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="5" t="n">
         <v>66210325.0615</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="5" t="n">
         <v>43695520.1498</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="5" t="n">
         <v>50915892.4473</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="5" t="n">
         <v>34659904.12</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>17552575</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="5" t="n">
         <v>-865709.23</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="5" t="n">
         <v>3970.5</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="5" t="n">
         <v>106.45</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="5" t="n">
         <v>-7289.63</v>
       </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4" t="n">
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5" t="n">
         <v>25408756</v>
       </c>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2940,30 +2942,30 @@
       <c r="N4" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="n">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="n">
         <v>1219878</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2978,40 +2980,40 @@
       <c r="N5" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4" t="n">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="n">
         <v>-105145</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="n">
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4" t="n">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AF5" s="4" t="n">
+      <c r="AF5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4" t="n">
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5" t="n">
         <v>-60040.61</v>
       </c>
-      <c r="AJ5" s="4"/>
+      <c r="AJ5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3026,70 +3028,70 @@
       <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="4" t="str">
+      <c r="O6" s="5" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="P6" s="5" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="4" t="str">
+      <c r="Q6" s="5" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="4" t="str">
+      <c r="R6" s="5" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="4" t="str">
+      <c r="S6" s="5" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="4" t="str">
+      <c r="T6" s="5" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="4" t="str">
+      <c r="U6" s="5" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="4" t="str">
+      <c r="V6" s="5" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="4" t="str">
+      <c r="W6" s="5" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="4" t="str">
+      <c r="X6" s="5" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="4" t="str">
+      <c r="Y6" s="5" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="4" t="str">
+      <c r="Z6" s="5" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="4" t="str">
+      <c r="AA6" s="5" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="4" t="str">
+      <c r="AB6" s="5" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="4" t="str">
+      <c r="AC6" s="5" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="4" t="str">
+      <c r="AD6" s="5" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="4" t="str">
+      <c r="AE6" s="5" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="4" t="str">
+      <c r="AF6" s="5" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="4" t="str">
+      <c r="AG6" s="5" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="4" t="str">
+      <c r="AH6" s="5" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="4" t="str">
+      <c r="AI6" s="5" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="4"/>
+      <c r="AJ6" s="5"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3181,60 +3183,60 @@
       <c r="N10" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4" t="n">
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5" t="n">
         <v>32627.3635793137</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4" t="n">
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5" t="n">
         <v>124055646.37582</v>
       </c>
-      <c r="V10" s="4" t="n">
+      <c r="V10" s="5" t="n">
         <v>132984234.016314</v>
       </c>
-      <c r="W10" s="4" t="n">
+      <c r="W10" s="5" t="n">
         <v>187956601.056025</v>
       </c>
-      <c r="X10" s="4" t="n">
+      <c r="X10" s="5" t="n">
         <v>358761419.635431</v>
       </c>
-      <c r="Y10" s="4" t="n">
+      <c r="Y10" s="5" t="n">
         <v>354682191.380767</v>
       </c>
-      <c r="Z10" s="4" t="n">
+      <c r="Z10" s="5" t="n">
         <v>399643767.570882</v>
       </c>
-      <c r="AA10" s="4" t="n">
+      <c r="AA10" s="5" t="n">
         <v>378399209.922717</v>
       </c>
-      <c r="AB10" s="4" t="n">
+      <c r="AB10" s="5" t="n">
         <v>229601282.257094</v>
       </c>
-      <c r="AC10" s="4" t="n">
+      <c r="AC10" s="5" t="n">
         <v>320221095.817708</v>
       </c>
-      <c r="AD10" s="4" t="n">
+      <c r="AD10" s="5" t="n">
         <v>395541011.84244</v>
       </c>
-      <c r="AE10" s="4" t="n">
+      <c r="AE10" s="5" t="n">
         <v>393092631.910356</v>
       </c>
-      <c r="AF10" s="4" t="n">
+      <c r="AF10" s="5" t="n">
         <v>220832235.452984</v>
       </c>
-      <c r="AG10" s="4" t="n">
+      <c r="AG10" s="5" t="n">
         <v>75462713.9428122</v>
       </c>
-      <c r="AH10" s="4" t="n">
+      <c r="AH10" s="5" t="n">
         <v>96091929.07</v>
       </c>
-      <c r="AI10" s="4" t="n">
+      <c r="AI10" s="5" t="n">
         <v>28626735.7388783</v>
       </c>
-      <c r="AJ10" s="4"/>
+      <c r="AJ10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3249,60 +3251,60 @@
       <c r="N11" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="5" t="n">
         <v>27826381.9578441</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="P11" s="5" t="n">
         <v>324022.475996445</v>
       </c>
-      <c r="Q11" s="4" t="n">
+      <c r="Q11" s="5" t="n">
         <v>4294815.67793701</v>
       </c>
-      <c r="R11" s="4" t="n">
+      <c r="R11" s="5" t="n">
         <v>47139256.915199</v>
       </c>
-      <c r="S11" s="4" t="n">
+      <c r="S11" s="5" t="n">
         <v>37459249.9867742</v>
       </c>
-      <c r="T11" s="4" t="n">
+      <c r="T11" s="5" t="n">
         <v>53402260.6510005</v>
       </c>
-      <c r="U11" s="4" t="n">
+      <c r="U11" s="5" t="n">
         <v>90123710.7191675</v>
       </c>
-      <c r="V11" s="4" t="n">
+      <c r="V11" s="5" t="n">
         <v>58306866.5074264</v>
       </c>
-      <c r="W11" s="4" t="n">
+      <c r="W11" s="5" t="n">
         <v>66730760.0754083</v>
       </c>
-      <c r="X11" s="4" t="n">
+      <c r="X11" s="5" t="n">
         <v>44615991.7165613</v>
       </c>
-      <c r="Y11" s="4" t="n">
+      <c r="Y11" s="5" t="n">
         <v>22189755.9060796</v>
       </c>
-      <c r="Z11" s="4" t="n">
+      <c r="Z11" s="5" t="n">
         <v>-1083201.37048324</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="5" t="n">
         <v>4928.60418148563</v>
       </c>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="5" t="n">
         <v>129.943515024962</v>
       </c>
-      <c r="AC11" s="4" t="n">
+      <c r="AC11" s="5" t="n">
         <v>-8705.19598705109</v>
       </c>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4" t="n">
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5" t="n">
         <v>29407858.5802604</v>
       </c>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3317,30 +3319,30 @@
       <c r="N12" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4" t="n">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="n">
         <v>1832293.68205333</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3355,40 +3357,40 @@
       <c r="N13" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4" t="n">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5" t="n">
         <v>-143120.541316856</v>
       </c>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4" t="n">
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4" t="n">
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AE13" s="4" t="n">
+      <c r="AE13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AF13" s="4" t="n">
+      <c r="AF13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4" t="n">
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5" t="n">
         <v>-58478.8738954934</v>
       </c>
-      <c r="AJ13" s="4"/>
+      <c r="AJ13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3397,28 +3399,28 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
+++ b/Output/PBL/Platform/Space_Systems/DoD_Space_Systems_Contracts.xlsx
@@ -175,11 +175,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -217,11 +217,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
